--- a/CPU-显卡/cpubenchamark-性价比计算.xlsx
+++ b/CPU-显卡/cpubenchamark-性价比计算.xlsx
@@ -9788,11 +9788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G1452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="2" ht="22.5" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="str">
-        <f>IFERROR(D4/E4,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G4" s="5"/>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="10" ht="22.5" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="24" ht="22.5" customHeight="1" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="28" ht="22.5" customHeight="1" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="30" ht="22.5" customHeight="1" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="37" ht="22.5" customHeight="1" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="58" ht="22.5" customHeight="1" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="77" ht="22.5" customHeight="1" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>156</v>
       </c>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="108" ht="22.5" customHeight="1" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>218</v>
       </c>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="122" ht="22.5" customHeight="1" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>246</v>
       </c>
@@ -12520,7 +12520,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="130" ht="22.5" customHeight="1" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>262</v>
       </c>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="144" ht="22.5" customHeight="1" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>290</v>
       </c>
@@ -12923,7 +12923,7 @@
       </c>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="149" ht="22.5" customHeight="1" spans="1:7">
       <c r="A149" s="1" t="s">
         <v>300</v>
       </c>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="164" ht="22.5" customHeight="1" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>330</v>
       </c>
@@ -23120,7 +23120,7 @@
       </c>
       <c r="G633" s="5"/>
     </row>
-    <row r="634" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="634" ht="22.5" customHeight="1" spans="1:7">
       <c r="A634" s="1" t="s">
         <v>1270</v>
       </c>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="G696" s="5"/>
     </row>
-    <row r="697" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="697" ht="22.5" customHeight="1" spans="1:7">
       <c r="A697" s="1" t="s">
         <v>1396</v>
       </c>
@@ -24779,7 +24779,7 @@
       </c>
       <c r="G712" s="5"/>
     </row>
-    <row r="713" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="713" ht="22.5" customHeight="1" spans="1:7">
       <c r="A713" s="1" t="s">
         <v>1428</v>
       </c>
@@ -29000,7 +29000,7 @@
       </c>
       <c r="G913" s="5"/>
     </row>
-    <row r="914" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="914" ht="22.5" customHeight="1" spans="1:7">
       <c r="A914" s="1" t="s">
         <v>1830</v>
       </c>
@@ -29042,7 +29042,7 @@
       </c>
       <c r="G915" s="5"/>
     </row>
-    <row r="916" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="916" ht="22.5" customHeight="1" spans="1:7">
       <c r="A916" s="1" t="s">
         <v>1834</v>
       </c>
@@ -30323,7 +30323,7 @@
       </c>
       <c r="G976" s="5"/>
     </row>
-    <row r="977" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="977" ht="22.5" customHeight="1" spans="1:7">
       <c r="A977" s="1" t="s">
         <v>1956</v>
       </c>
@@ -32696,7 +32696,7 @@
       </c>
       <c r="G1089" s="5"/>
     </row>
-    <row r="1090" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1090" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1090" s="1" t="s">
         <v>2182</v>
       </c>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="G1168" s="5"/>
     </row>
-    <row r="1169" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1169" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1169" s="1" t="s">
         <v>2340</v>
       </c>
@@ -35153,7 +35153,7 @@
       </c>
       <c r="G1206" s="5"/>
     </row>
-    <row r="1207" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1207" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1207" s="1" t="s">
         <v>2416</v>
       </c>
@@ -35783,7 +35783,7 @@
       </c>
       <c r="G1236" s="5"/>
     </row>
-    <row r="1237" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1237" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1237" s="1" t="s">
         <v>2476</v>
       </c>
@@ -36308,7 +36308,7 @@
       </c>
       <c r="G1261" s="5"/>
     </row>
-    <row r="1262" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1262" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1262" s="1" t="s">
         <v>2526</v>
       </c>
@@ -36392,7 +36392,7 @@
       </c>
       <c r="G1265" s="5"/>
     </row>
-    <row r="1266" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1266" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1266" s="1" t="s">
         <v>2534</v>
       </c>
@@ -36728,7 +36728,7 @@
       </c>
       <c r="G1281" s="5"/>
     </row>
-    <row r="1282" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1282" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1282" s="1" t="s">
         <v>2566</v>
       </c>
@@ -37211,7 +37211,7 @@
       </c>
       <c r="G1304" s="5"/>
     </row>
-    <row r="1305" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1305" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1305" s="1" t="s">
         <v>2612</v>
       </c>
@@ -38639,7 +38639,7 @@
       </c>
       <c r="G1372" s="5"/>
     </row>
-    <row r="1373" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1373" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1373" s="1" t="s">
         <v>2748</v>
       </c>
@@ -38975,7 +38975,7 @@
       </c>
       <c r="G1388" s="5"/>
     </row>
-    <row r="1389" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1389" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1389" s="1" t="s">
         <v>2780</v>
       </c>
@@ -38996,7 +38996,7 @@
       </c>
       <c r="G1389" s="5"/>
     </row>
-    <row r="1390" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1390" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1390" s="1" t="s">
         <v>2782</v>
       </c>
@@ -39122,7 +39122,7 @@
       </c>
       <c r="G1395" s="5"/>
     </row>
-    <row r="1396" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1396" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1396" s="1" t="s">
         <v>2794</v>
       </c>
@@ -39731,7 +39731,7 @@
       </c>
       <c r="G1424" s="5"/>
     </row>
-    <row r="1425" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1425" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1425" s="1" t="s">
         <v>2852</v>
       </c>
@@ -40298,7 +40298,7 @@
       </c>
       <c r="G1451" s="5"/>
     </row>
-    <row r="1452" ht="22.5" hidden="1" customHeight="1" spans="1:7">
+    <row r="1452" ht="22.5" customHeight="1" spans="1:7">
       <c r="A1452" s="1" t="s">
         <v>2906</v>
       </c>
@@ -40320,23 +40320,11 @@
       <c r="G1452" s="5"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G1452" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="AMD"/>
-        <customFilter operator="equal" val="Intel"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A1:G1452">
-      <sortCondition ref="F1" descending="1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1 C1:D1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:D1 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>